--- a/画面/画面レイアウト.xlsx
+++ b/画面/画面レイアウト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-san\Documents\01_Projects\201905_Kinchan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sanyo_work\projects\Kinchan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDB1DA3-AF8F-4B36-A1B8-72C509C60140}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB95952-29B7-40BC-B69B-9D7202D574C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCメニュー" sheetId="1" r:id="rId1"/>
@@ -1669,6 +1669,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1724,9 +1727,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6101,21 +6101,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="1.625" customWidth="1"/>
+    <col min="12" max="12" width="1.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -6137,133 +6135,133 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -6285,9 +6283,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="19" t="s">
         <v>21</v>
       </c>
@@ -6296,7 +6294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="G3" s="8">
         <v>5</v>
       </c>
@@ -6326,7 +6324,7 @@
       </c>
       <c r="P3" s="8"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -6337,7 +6335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -6361,7 +6359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="10">
         <v>4</v>
@@ -6396,7 +6394,7 @@
       </c>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="2:20" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="8">
         <v>4</v>
       </c>
@@ -6417,7 +6415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="9"/>
       <c r="C9" s="10">
         <v>4</v>
@@ -6446,7 +6444,7 @@
       <c r="S9" s="12"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="2:20" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="8">
         <v>4</v>
       </c>
@@ -6463,7 +6461,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="2:20" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="13"/>
       <c r="C11" s="14">
         <v>4</v>
@@ -6492,7 +6490,7 @@
       <c r="S11" s="15"/>
       <c r="T11" s="13"/>
     </row>
-    <row r="12" spans="2:20" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="16"/>
       <c r="C12" s="17">
         <v>4</v>
@@ -6521,200 +6519,200 @@
       <c r="S12" s="18"/>
       <c r="T12" s="16"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
       <c r="T18" s="35"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
       <c r="T21" s="35"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C26" s="58" t="s">
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6734,24 +6732,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F39F733-21DC-49BD-B5AB-CA43CC1CACAE}">
   <dimension ref="B2:T16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O5" sqref="D2:O5"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="72"/>
+    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="53"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
     </row>
-    <row r="3" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -6769,7 +6767,7 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
     </row>
-    <row r="5" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="23"/>
       <c r="C5" s="25"/>
       <c r="D5" s="24"/>
@@ -6790,7 +6788,7 @@
       <c r="S5" s="24"/>
       <c r="T5" s="23"/>
     </row>
-    <row r="6" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="28"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
@@ -6811,7 +6809,7 @@
       <c r="S6" s="27"/>
       <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="23"/>
       <c r="C7" s="25"/>
       <c r="D7" s="24"/>
@@ -6832,7 +6830,7 @@
       <c r="S7" s="24"/>
       <c r="T7" s="23"/>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="28"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
@@ -6853,7 +6851,7 @@
       <c r="S8" s="27"/>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="25"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -6873,7 +6871,7 @@
       <c r="S9" s="24"/>
       <c r="T9" s="23"/>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="28"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
@@ -6894,7 +6892,7 @@
       <c r="S10" s="27"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="23"/>
       <c r="C11" s="25"/>
       <c r="D11" s="24"/>
@@ -6915,7 +6913,7 @@
       <c r="S11" s="24"/>
       <c r="T11" s="23"/>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="28"/>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
@@ -6936,7 +6934,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="28"/>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="25"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -6956,7 +6954,7 @@
       <c r="S13" s="24"/>
       <c r="T13" s="23"/>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="28"/>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -6977,7 +6975,7 @@
       <c r="S14" s="27"/>
       <c r="T14" s="28"/>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="23"/>
       <c r="C15" s="25"/>
       <c r="D15" s="24"/>
@@ -6998,7 +6996,7 @@
       <c r="S15" s="24"/>
       <c r="T15" s="23"/>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="28"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
@@ -7032,16 +7030,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:T30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:S8"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="19" t="s">
         <v>21</v>
       </c>
@@ -7059,7 +7055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -7095,7 +7091,7 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
     </row>
-    <row r="5" spans="2:20" ht="124.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="124.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="23"/>
       <c r="C5" s="25" t="s">
         <v>26</v>
@@ -7103,24 +7099,24 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
       <c r="T5" s="23"/>
     </row>
-    <row r="6" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="28"/>
       <c r="C6" s="26" t="s">
         <v>29</v>
@@ -7128,24 +7124,24 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
       <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="23"/>
       <c r="C7" s="25" t="s">
         <v>30</v>
@@ -7153,24 +7149,24 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
       <c r="T7" s="23"/>
     </row>
-    <row r="8" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="28"/>
       <c r="C8" s="26" t="s">
         <v>31</v>
@@ -7178,46 +7174,46 @@
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
       <c r="T9" s="23"/>
     </row>
-    <row r="10" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="13"/>
       <c r="C10" s="29" t="s">
         <v>33</v>
@@ -7225,22 +7221,22 @@
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
       <c r="T10" s="13"/>
     </row>
-    <row r="11" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="16"/>
       <c r="C11" s="31" t="s">
         <v>34</v>
@@ -7248,215 +7244,215 @@
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="16"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
       <c r="T17" s="35"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
       <c r="T20" s="35"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C30" s="58" t="s">
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7488,12 +7484,12 @@
       <selection activeCell="C36" sqref="C36:S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="19" t="s">
         <v>21</v>
       </c>
@@ -7511,7 +7507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -7536,8 +7532,8 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
     </row>
-    <row r="5" spans="2:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="43" t="s">
         <v>62</v>
       </c>
@@ -7560,8 +7556,8 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.85">
       <c r="D8" s="37" t="s">
         <v>51</v>
       </c>
@@ -7572,8 +7568,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.85">
       <c r="D10" s="37" t="s">
         <v>52</v>
       </c>
@@ -7584,8 +7580,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.85">
       <c r="D12" s="37" t="s">
         <v>55</v>
       </c>
@@ -7604,8 +7600,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.85">
       <c r="D14" s="44" t="s">
         <v>16</v>
       </c>
@@ -7621,7 +7617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="24" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:20" ht="22.5" x14ac:dyDescent="0.65">
       <c r="D16" s="37" t="s">
         <v>7</v>
       </c>
@@ -7629,10 +7625,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.65">
       <c r="D17" s="37"/>
     </row>
-    <row r="18" spans="4:10" ht="24" x14ac:dyDescent="0.5">
+    <row r="18" spans="4:10" ht="22.5" x14ac:dyDescent="0.65">
       <c r="D18" s="37" t="s">
         <v>60</v>
       </c>
@@ -7640,10 +7636,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.65">
       <c r="D19" s="37"/>
     </row>
-    <row r="20" spans="4:10" ht="24" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="36" t="s">
         <v>57</v>
       </c>
@@ -7651,27 +7647,27 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:10" ht="24" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="J21" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="4:10" ht="24" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="J22" s="41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="4:10" ht="24" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="J23" s="41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="4:10" ht="24" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="J24" s="41" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="4:10" ht="24" x14ac:dyDescent="0.5">
+    <row r="26" spans="4:10" ht="22.5" x14ac:dyDescent="0.65">
       <c r="D26" s="37" t="s">
         <v>7</v>
       </c>
@@ -7679,10 +7675,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.65">
       <c r="D27" s="37"/>
     </row>
-    <row r="28" spans="4:10" ht="24" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:10" ht="22.5" x14ac:dyDescent="0.65">
       <c r="D28" s="37" t="s">
         <v>60</v>
       </c>
@@ -7690,10 +7686,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.65">
       <c r="D29" s="37"/>
     </row>
-    <row r="30" spans="4:10" ht="24" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="36" t="s">
         <v>57</v>
       </c>
@@ -7701,47 +7697,47 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C34" s="58" t="s">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C36" s="58" t="s">
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7767,12 +7763,12 @@
       <selection activeCell="C40" sqref="C40:S40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:18" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="19" t="s">
         <v>21</v>
       </c>
@@ -7790,7 +7786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -7815,10 +7811,10 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
     </row>
-    <row r="5" spans="3:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="3:18" ht="30" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="3:18" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="3:18" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.85">
       <c r="D8" s="37" t="s">
         <v>51</v>
       </c>
@@ -7829,8 +7825,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.85">
       <c r="D10" s="37" t="s">
         <v>52</v>
       </c>
@@ -7841,8 +7837,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.65">
       <c r="D12" s="37" t="s">
         <v>55</v>
       </c>
@@ -7859,8 +7855,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.85">
       <c r="D14" s="37" t="s">
         <v>16</v>
       </c>
@@ -7876,94 +7872,94 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="3:18" ht="24" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:18" ht="22.5" x14ac:dyDescent="0.65">
       <c r="D16" s="37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.65">
       <c r="D17" s="37"/>
     </row>
-    <row r="18" spans="4:4" ht="24" x14ac:dyDescent="0.5">
+    <row r="18" spans="4:4" ht="22.5" x14ac:dyDescent="0.65">
       <c r="D18" s="37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.65">
       <c r="D19" s="37"/>
     </row>
-    <row r="20" spans="4:4" ht="24" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:4" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="4:4" ht="24" x14ac:dyDescent="0.5">
+    <row r="27" spans="4:4" ht="22.5" x14ac:dyDescent="0.65">
       <c r="D27" s="37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.65">
       <c r="D28" s="37"/>
     </row>
-    <row r="29" spans="4:4" ht="24" x14ac:dyDescent="0.5">
+    <row r="29" spans="4:4" ht="22.5" x14ac:dyDescent="0.65">
       <c r="D29" s="37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.65">
       <c r="D30" s="37"/>
     </row>
-    <row r="31" spans="4:4" ht="24" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:4" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C40" s="58" t="s">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C42" s="58" t="s">
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7984,12 +7980,12 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="19"/>
       <c r="H2" s="20"/>
       <c r="I2" s="8"/>
@@ -7997,7 +7993,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -8015,7 +8011,7 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
     </row>
-    <row r="4" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>77</v>
       </c>
@@ -8023,7 +8019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="23"/>
       <c r="C5" s="45" t="s">
         <v>79</v>
@@ -8048,7 +8044,7 @@
       <c r="S5" s="24"/>
       <c r="T5" s="23"/>
     </row>
-    <row r="6" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="28"/>
       <c r="C6" s="46" t="s">
         <v>80</v>
@@ -8073,7 +8069,7 @@
       <c r="S6" s="27"/>
       <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="23"/>
       <c r="C7" s="47" t="s">
         <v>81</v>
@@ -8098,7 +8094,7 @@
       <c r="S7" s="24"/>
       <c r="T7" s="23"/>
     </row>
-    <row r="8" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="28"/>
       <c r="C8" s="46" t="s">
         <v>82</v>
@@ -8123,7 +8119,7 @@
       <c r="S8" s="27"/>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="47" t="s">
         <v>83</v>
       </c>
@@ -8147,7 +8143,7 @@
       <c r="S9" s="24"/>
       <c r="T9" s="23"/>
     </row>
-    <row r="10" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="28"/>
       <c r="C10" s="46" t="s">
         <v>91</v>
@@ -8172,31 +8168,31 @@
       <c r="S10" s="27"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="11" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="C13" s="58" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8218,12 +8214,12 @@
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="19"/>
       <c r="H2" s="20"/>
       <c r="I2" s="8"/>
@@ -8231,7 +8227,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="3:21" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:21" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="48" t="s">
         <v>78</v>
       </c>
@@ -8251,9 +8247,9 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
     </row>
-    <row r="4" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="36" t="s">
         <v>90</v>
       </c>
@@ -8261,13 +8257,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="9" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="49" t="s">
         <v>92</v>
       </c>
@@ -8284,13 +8280,13 @@
       </c>
       <c r="U9" s="50"/>
     </row>
-    <row r="10" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="49" t="s">
         <v>94</v>
       </c>
@@ -8306,7 +8302,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="49" t="s">
         <v>59</v>
       </c>
@@ -8319,58 +8315,58 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C19" s="58" t="s">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C21" s="58" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8391,12 +8387,12 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="19"/>
       <c r="H2" s="20"/>
       <c r="I2" s="8"/>
@@ -8404,7 +8400,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="3:19" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:19" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="48" t="s">
         <v>78</v>
       </c>
@@ -8424,117 +8420,117 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
     </row>
-    <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="66" t="s">
+    <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="I6" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="O6" s="66" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="O6" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-    </row>
-    <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+    </row>
+    <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="71" t="s">
+    <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="I8" s="67" t="s">
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="I8" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="O8" s="67" t="s">
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="O8" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-    </row>
-    <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="62" t="s">
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+    </row>
+    <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="I9" s="64" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="I9" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="O9" s="64" t="s">
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="O9" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-    </row>
-    <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O11" s="68" t="s">
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+    </row>
+    <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O11" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-    </row>
-    <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O12" s="69" t="s">
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+    </row>
+    <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O12" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-    </row>
-    <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="58" t="s">
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+    </row>
+    <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-    </row>
-    <row r="17" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="58" t="s">
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+    </row>
+    <row r="17" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8568,12 +8564,12 @@
       <selection activeCell="O9" sqref="O9:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="3" max="3" width="3.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="19"/>
       <c r="H2" s="20"/>
       <c r="I2" s="8"/>
@@ -8581,7 +8577,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="3:19" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:19" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="48" t="s">
         <v>109</v>
       </c>
@@ -8601,111 +8597,111 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
     </row>
-    <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="66" t="s">
+    <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="I6" s="66" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="I6" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="O6" s="66" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="O6" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-    </row>
-    <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+    </row>
+    <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="71" t="s">
+    <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="I8" s="67" t="s">
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="I8" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="O8" s="67" t="s">
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="O8" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-    </row>
-    <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="63" t="s">
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+    </row>
+    <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="I9" s="63" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="I9" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="O9" s="65" t="s">
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="O9" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-    </row>
-    <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O11" s="68" t="s">
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+    </row>
+    <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O11" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-    </row>
-    <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O12" s="69" t="s">
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+    </row>
+    <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O12" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-    </row>
-    <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="58" t="s">
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+    </row>
+    <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:S15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="C15:S15"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面/画面レイアウト.xlsx
+++ b/画面/画面レイアウト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sanyo_work\projects\Kinchan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sanyo_work\projects\Kinchan\git\KinchanDoc\画面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB95952-29B7-40BC-B69B-9D7202D574C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5644880-5E9E-45DA-B4DF-5E5461406B0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="797" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCメニュー" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="126">
   <si>
     <t>各種報告</t>
     <rPh sb="0" eb="2">
@@ -1212,6 +1212,80 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>2019年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5/6～5/12</t>
+  </si>
+  <si>
+    <t>4/29～5/5</t>
+  </si>
+  <si>
+    <t>5/13～5/19</t>
+  </si>
+  <si>
+    <t>5/20～5/26</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作業中</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5/13</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5/20</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5/6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5/27</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>提出日</t>
+    <rPh sb="0" eb="2">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作業日</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1220,7 +1294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,6 +1498,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1519,7 +1602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1673,6 +1756,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1727,6 +1813,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6101,7 +6205,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6528,191 +6632,191 @@
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
       <c r="T18" s="35"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
       <c r="T21" s="35"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6730,11 +6834,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F39F733-21DC-49BD-B5AB-CA43CC1CACAE}">
-  <dimension ref="B2:T16"/>
+  <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6767,9 +6869,26 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
     </row>
-    <row r="5" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="J4" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -6788,234 +6907,276 @@
       <c r="S5" s="24"/>
       <c r="T5" s="23"/>
     </row>
-    <row r="6" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="28"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="28"/>
-    </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="28"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+    </row>
+    <row r="7" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="23"/>
-    </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="23"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+    </row>
+    <row r="8" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="28"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="28"/>
-    </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="23"/>
-    </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="28"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+    </row>
+    <row r="9" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="25"/>
+      <c r="E9" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+    </row>
+    <row r="10" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="28"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="28"/>
-    </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+    </row>
+    <row r="11" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="23"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="23"/>
-    </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+    </row>
+    <row r="12" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="28"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
-    </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+    </row>
+    <row r="13" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="23"/>
-    </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+    </row>
+    <row r="14" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="28"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="28"/>
-    </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+    </row>
+    <row r="15" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="23"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="23"/>
-    </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+    </row>
+    <row r="16" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="28"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="28"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+    </row>
+    <row r="17" spans="4:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -7030,7 +7191,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:T30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7099,21 +7262,21 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
       <c r="T5" s="23"/>
     </row>
     <row r="6" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7124,21 +7287,21 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
       <c r="T6" s="28"/>
     </row>
     <row r="7" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7149,21 +7312,21 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
       <c r="T7" s="23"/>
     </row>
     <row r="8" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7174,21 +7337,21 @@
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
       <c r="T8" s="28"/>
     </row>
     <row r="9" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7198,19 +7361,19 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
       <c r="T9" s="23"/>
     </row>
     <row r="10" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7221,19 +7384,19 @@
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
       <c r="T10" s="13"/>
     </row>
     <row r="11" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7244,19 +7407,19 @@
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
       <c r="T11" s="16"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
@@ -7268,191 +7431,191 @@
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
       <c r="T17" s="35"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
       <c r="T20" s="35"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7698,46 +7861,46 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7920,46 +8083,46 @@
       </c>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8174,25 +8337,25 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8327,46 +8490,46 @@
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8421,21 +8584,21 @@
       <c r="R3" s="33"/>
     </row>
     <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="I6" s="67" t="s">
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="I6" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="O6" s="67" t="s">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="O6" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
     </row>
     <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="52"/>
@@ -8443,94 +8606,94 @@
       <c r="K7" s="52"/>
     </row>
     <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="I8" s="68" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="I8" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="O8" s="68" t="s">
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="O8" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
     </row>
     <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="I9" s="65" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="I9" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="O9" s="65" t="s">
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="O9" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
     </row>
     <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O11" s="69" t="s">
+      <c r="O11" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
     </row>
     <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O12" s="70" t="s">
+      <c r="O12" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
     </row>
     <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
     </row>
     <row r="17" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8598,21 +8761,21 @@
       <c r="R3" s="33"/>
     </row>
     <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="I6" s="67" t="s">
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="I6" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="O6" s="67" t="s">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="O6" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
     </row>
     <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="52"/>
@@ -8620,88 +8783,88 @@
       <c r="K7" s="52"/>
     </row>
     <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="I8" s="68" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="I8" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="O8" s="68" t="s">
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="O8" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
     </row>
     <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="I9" s="64" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="I9" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="O9" s="66" t="s">
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="O9" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
     </row>
     <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O11" s="69" t="s">
+      <c r="O11" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
     </row>
     <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O12" s="70" t="s">
+      <c r="O12" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
     </row>
     <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="O8:Q8"/>
     <mergeCell ref="C15:S15"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
